--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_298.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_298.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.03481934731934732</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Gb:maj6', 'Ab:7', 'Db', 'Db']]</t>
-        </is>
+          <t>jaah_71</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08660785886126704</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C', 'C']]</t>
+          <t>[['Bb:7', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.75, 41.1)]</t>
+          <t>[['C:7', 'F:maj/C', 'C:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(11.26, 14.36)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:22.090000', '0:01:29.290000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:30.080000', '0:01:38.560000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1277777777777778</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:min', 'Eb:min'], ['Bb:7', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1904761904761905</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['C:7', 'F:maj', 'C:7']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.96, 9.2), (44.07, 46.31)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (63.22, 68.94)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.279000', '0:00:16.531000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03733191790516631</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_32</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1515453639082752</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
+          <t>[['A', 'A', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.94, 11.88), (27.25, 29.62)]</t>
+          <t>[['G', 'G', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(31.89, 34.57), (43.61, 45.41)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:35.810988', '0:00:42.010716')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:03.010000', '0:00:08.710000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1458333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.094553, 16.853782)]</t>
+          <t>[['G', 'C/5', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1230195712954334</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>jaah_4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_73</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06340136054421769</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['Bb:min7', 'Eb:7', 'Ab/3']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.54, 27.18)]</t>
+          <t>[['C:min7', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.898503, 16.109841)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:24.460000', '0:00:30.010000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:09.660000', '0:00:10.950000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(40.049, 48.539)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(55.84, 65.04)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.02, 15.9)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.34, 17.66)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(69.84, 81.68)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:21.620000', '0:00:25.320000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.125886524822695</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5230769230769231</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(63.629047, 74.101247)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(51.315598, 59.809365)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(58.08, 65.66)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(37.936167, 42.951678)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1052955665024631</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(7.523, 10.397)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.3, 14.36)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09818181818181818</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(66.74, 74.43)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.9, 17.05)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(60.04, 67.08)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(128.54, 132.84)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1770833333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(76.585782, 78.06481)]</t>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(21.14, 27.92)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(40.5, 43.26)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(3.509, 13.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
